--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -15106,11 +15106,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A7" sqref="A7"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -15106,10 +15106,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="11" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -15106,11 +15106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15480,6 +15478,7 @@
     <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
     <sheet name="Task Management" sheetId="2" r:id="rId2"/>
     <sheet name="User Management" sheetId="3" r:id="rId3"/>
     <sheet name="Project Management" sheetId="4" r:id="rId4"/>
-    <sheet name="Importing service" sheetId="5" r:id="rId5"/>
+    <sheet name="Service for importing" sheetId="5" r:id="rId5"/>
     <sheet name="Timesheet management" sheetId="6" r:id="rId6"/>
     <sheet name="Skill management" sheetId="7" r:id="rId7"/>
     <sheet name="IMSM" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -5212,6 +5212,105 @@
     <t>Project/ Webservice</t>
   </si>
   <si>
+    <t>Verify that create web service for importing projects from Redmine function correctly</t>
+  </si>
+  <si>
+    <r>
+      <t>- Login as PM to OpenERP
+- Click Project\ Webservices\ Create
+- Configure webservice
+Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Name &lt; define&gt;
+User &lt;define&gt;
+Webservice Protocol= http
+Webservice Host=&lt; ip of redmine&gt;
+Webserver Post= &lt; port of redmine&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>WebService Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> : /path/to/redmine/issues.json? status_id=*
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Model Name :  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">vsii_project.vsii_redmine_connector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">o Decode Method Name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">collect_project_worklog
+- Authentication: Basic; Account=Redmine admin; password= Redmine password
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- Save
+</t>
+    </r>
+  </si>
+  <si>
     <t>W02</t>
   </si>
   <si>
@@ -5223,10 +5322,85 @@
 - Click "Run service"</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Service is run correctly
+Project in webservice is imported in VSII Projects
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key=Remine project Identifier 
+Name=Project Name
+Type=Redmine
+Department= Department of PM
+Project=blank
+Webservice host=host address</t>
+    </r>
+  </si>
+  <si>
     <t>W03</t>
   </si>
   <si>
+    <t>Verify the ability of mapping imported project from Redmine with existed OpenERP project work correctly</t>
+  </si>
+  <si>
+    <t>- Login as PM
+- Redmine Project is imported successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Click VSII Projects
+-Select imported Redmine project
+- Click Edit
+- Select Project &lt; existed OpenERP project&gt;
+- Unmark "No Verify Worklogs"
+- Click Save
+</t>
+  </si>
+  <si>
+    <t>Imported Redmine project is mapped with existed OpenERP project correctly
+Redmine project is imported successfully to OPenERP project</t>
+  </si>
+  <si>
     <t>W04</t>
+  </si>
+  <si>
+    <t>Verify importing Redmine project to OpenERP project work correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Log as PM
+- Configure webservice is OK
+- Mapping Redmine project with OpenERP project is OK
+- Redmine project has following infor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
   <si>
     <t>- Login as PM to OpenERP
@@ -5235,16 +5409,163 @@
 - Click Run Service</t>
   </si>
   <si>
+    <t>Redmine project is imported successfully to OPenERP project
+In Projects\ Projects select mapped OpenERP project click to view detail:
+ &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task&gt;</t>
+  </si>
+  <si>
     <t>W05</t>
   </si>
   <si>
+    <t>Verify that when add new worklog in Redmine project "webservice importing" work correctly</t>
+  </si>
+  <si>
+    <t>- Login as project member in Redmine
+Add worklog for task
+LienLT: filled 2h for this task
+Login as PM in OpenERP
+- Click Project\ Webservices\ 
+- Select the webservice
+- Click Run Service</t>
+  </si>
+  <si>
+    <t>Redmine project is imported successfully to OPenERP project
+In Projects\ Projects select mapped OpenERP project click to view detail:
+ &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task
+LienLT: filled 2h for this task&gt;</t>
+  </si>
+  <si>
     <t>W06</t>
   </si>
   <si>
+    <t>Verify that when update worklog in Redmine project "webservice importing" work correctly</t>
+  </si>
+  <si>
+    <t>- Login as project member in Redmine
+Update worklog for task
+TrangNTT: filled 2h for this task
+Login as PM in OpenERP
+- Click Project\ Webservices\ 
+- Select the webservice
+- Click Run Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redmine project is imported successfully to OPenERP project
+In Projects\ Projects select mapped OpenERP project click to view detail:
+ &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 2h for this task
+</t>
+  </si>
+  <si>
     <t>W07</t>
   </si>
   <si>
+    <t>Verify that when delete worklog in Redmine project "webservice importing" work correctly</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Log as PM
+- Configure webservice is OK
+- Mapping Redmine project with OpenERP project is OK
+- Redmine project has following infor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task
+LienLT: filled 2h for this task&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>- Login as project member in Redmine
+Delete worklog for task
+LienLT: filled 2h for this task
+Login as PM in OpenERP
+- Click Project\ Webservices\ 
+- Select the webservice
+- Click Run Service</t>
+  </si>
+  <si>
+    <t>Redmine project is imported successfully to OPenERP project
+In Projects\ Projects select mapped OpenERP project click to view detail:
+ &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task
+&gt;</t>
+  </si>
+  <si>
     <t>W08</t>
+  </si>
+  <si>
+    <t>Verify that a new project member in Redmine
+Their worklog is also imported when run importing webservice</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Log as PM 
+- Configure webservice is OK
+- Mapping Redmine project with OpenERP project is OK
+- HungNT is not member in OpenERP project
+- Redmine project has following infor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; Project Members: LienLT, TuyetPTA, TrangNTT
+Task: Execute Test 
+TrangNTT: filled 4h for this task
+LienLT: filled 2h for this task&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>- Login as PM of Redmine add more project member &lt; HungNT in Redmine
+- Login as PM in OpenERP
+- Click Project\ Webservices\ 
+- Select the webservice
+- Click Run Service</t>
+  </si>
+  <si>
+    <t>Redmine project is imported successfully to OPenERP project
+OpenERP project has HungNT as project member</t>
   </si>
   <si>
     <t>TimeSheet</t>
@@ -10566,6 +10887,9 @@
     <t>UM37</t>
   </si>
   <si>
+    <t>zzsxa</t>
+  </si>
+  <si>
     <t>TC01</t>
   </si>
   <si>
@@ -10693,184 +11017,13 @@
   </si>
   <si>
     <t>TC43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service is created successfully with given information </t>
-  </si>
-  <si>
-    <t>Verify that create web service for importing projects from JIRA function correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Login as PM to OpenERP
-- Click Project\ Webservices\ Create
-- Configure webservice
-Name 
-Name &lt; define&gt;
-User &lt;define&gt;
-Webservice Protocol= http
-Webservice Host=&lt; ip of JIRA&gt;
-Webserver Post= &lt; port of JIRA&gt;
-WebService Path : /path/to/JIRA/issues.json? status_id=*
- Model Name :  vsii_project.vsii_JIRA_connector
-o Decode Method Name: collect_project_worklog
-- Authentication: Basic; Account=JIRA admin; password= JIRA password
-- Save
-</t>
-  </si>
-  <si>
-    <t>Service is run correctly
-Project in webservice is imported in VSII Projects
-Key=Remine project Identifier 
-Name=Project Name
-Type=JIRA
-Department= Department of PM
-Project=blank
-Webservice host=host address</t>
-  </si>
-  <si>
-    <t>Verify the ability of mapping imported project from JIRA with existed OpenERP project work correctly</t>
-  </si>
-  <si>
-    <t>- Login as PM
-- JIRA Project is imported successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Click VSII Projects
--Select imported JIRA project
-- Click Edit
-- Select Project &lt; existed OpenERP project&gt;
-- Unmark "No Verify Worklogs"
-- Click Save
-</t>
-  </si>
-  <si>
-    <t>Imported JIRA project is mapped with existed OpenERP project correctly
-JIRA project is imported successfully to OPenERP project</t>
-  </si>
-  <si>
-    <t>Verify importing JIRA project to OpenERP project work correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Log as PM
-- Configure webservice is OK
-- Mapping JIRA project with OpenERP project is OK
-- JIRA project has following infor:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task&gt;
-</t>
-  </si>
-  <si>
-    <t>JIRA project is imported successfully to OPenERP project
-In Projects\ Projects select mapped OpenERP project click to view detail:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task&gt;</t>
-  </si>
-  <si>
-    <t>Verify that when add new worklog in JIRA project "webservice importing" work correctly</t>
-  </si>
-  <si>
-    <t>- Login as project member in JIRA
-Add worklog for task
-LienLT: filled 2h for this task
-Login as PM in OpenERP
-- Click Project\ Webservices\ 
-- Select the webservice
-- Click Run Service</t>
-  </si>
-  <si>
-    <t>JIRA project is imported successfully to OPenERP project
-In Projects\ Projects select mapped OpenERP project click to view detail:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task
-LienLT: filled 2h for this task&gt;</t>
-  </si>
-  <si>
-    <t>Verify that when update worklog in JIRA project "webservice importing" work correctly</t>
-  </si>
-  <si>
-    <t>- Login as project member in JIRA
-Update worklog for task
-TrangNTT: filled 2h for this task
-Login as PM in OpenERP
-- Click Project\ Webservices\ 
-- Select the webservice
-- Click Run Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIRA project is imported successfully to OPenERP project
-In Projects\ Projects select mapped OpenERP project click to view detail:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 2h for this task
-</t>
-  </si>
-  <si>
-    <t>Verify that when delete worklog in JIRA project "webservice importing" work correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Log as PM
-- Configure webservice is OK
-- Mapping JIRA project with OpenERP project is OK
-- JIRA project has following infor:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task
-LienLT: filled 2h for this task&gt;
-</t>
-  </si>
-  <si>
-    <t>- Login as project member in JIRA
-Delete worklog for task
-LienLT: filled 2h for this task
-Login as PM in OpenERP
-- Click Project\ Webservices\ 
-- Select the webservice
-- Click Run Service</t>
-  </si>
-  <si>
-    <t>JIRA project is imported successfully to OPenERP project
-In Projects\ Projects select mapped OpenERP project click to view detail:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task
-&gt;</t>
-  </si>
-  <si>
-    <t>Verify that a new project member in JIRA
-Their worklog is also imported when run importing webservice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Log as PM 
-- Configure webservice is OK
-- Mapping JIRA project with OpenERP project is OK
-- HungNT is not member in OpenERP project
-- JIRA project has following infor:
- &lt; Project Members: LienLT, TuyetPTA, TrangNTT
-Task: Execute Test 
-TrangNTT: filled 4h for this task
-LienLT: filled 2h for this task&gt;
-</t>
-  </si>
-  <si>
-    <t>- Login as PM of JIRA add more project member &lt; HungNT in JIRA
-- Login as PM in OpenERP
-- Click Project\ Webservices\ 
-- Select the webservice
-- Click Run Service</t>
-  </si>
-  <si>
-    <t>JIRA project is imported successfully to OPenERP project
-OpenERP project has HungNT as project member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11062,6 +11215,21 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -11118,13 +11286,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -11345,12 +11506,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11500,6 +11657,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11509,73 +11672,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -11602,25 +11765,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11662,46 +11819,50 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -11992,8 +12153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -12006,7 +12167,7 @@
   <sheetData>
     <row r="4" spans="1:5">
       <c r="A4" s="90" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -12020,7 +12181,7 @@
     </row>
     <row r="6" spans="1:5" ht="27.75" customHeight="1">
       <c r="A6" s="91" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
@@ -12069,139 +12230,139 @@
       <c r="D13" s="93"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
-      <c r="A14" s="85" t="s">
-        <v>963</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>964</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>965</v>
-      </c>
-      <c r="D14" s="86" t="s">
+      <c r="A14" s="87" t="s">
+        <v>987</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>988</v>
+      </c>
+      <c r="C14" s="88" t="s">
+        <v>989</v>
+      </c>
+      <c r="D14" s="88" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="87" t="s">
-        <v>966</v>
+      <c r="E14" s="89" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75">
-      <c r="A15" s="85">
+      <c r="A15" s="87">
         <v>1</v>
       </c>
-      <c r="B15" s="85" t="s">
-        <v>967</v>
-      </c>
-      <c r="C15" s="85">
+      <c r="B15" s="87" t="s">
+        <v>991</v>
+      </c>
+      <c r="C15" s="87">
         <v>32</v>
       </c>
-      <c r="D15" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>969</v>
+      <c r="D15" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
-      <c r="A16" s="85">
+      <c r="A16" s="87">
         <v>2</v>
       </c>
-      <c r="B16" s="85" t="s">
-        <v>970</v>
-      </c>
-      <c r="C16" s="85">
+      <c r="B16" s="87" t="s">
+        <v>994</v>
+      </c>
+      <c r="C16" s="87">
         <v>32</v>
       </c>
-      <c r="D16" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>971</v>
+      <c r="D16" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75">
-      <c r="A17" s="85">
+      <c r="A17" s="87">
         <v>3</v>
       </c>
-      <c r="B17" s="85" t="s">
-        <v>972</v>
-      </c>
-      <c r="C17" s="85">
+      <c r="B17" s="87" t="s">
+        <v>996</v>
+      </c>
+      <c r="C17" s="87">
         <v>37</v>
       </c>
-      <c r="D17" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>973</v>
+      <c r="D17" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="85">
+      <c r="A18" s="87">
         <v>4</v>
       </c>
-      <c r="B18" s="85" t="s">
-        <v>974</v>
-      </c>
-      <c r="C18" s="85">
+      <c r="B18" s="87" t="s">
+        <v>998</v>
+      </c>
+      <c r="C18" s="87">
         <v>45</v>
       </c>
-      <c r="D18" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E18" s="52" t="s">
-        <v>975</v>
+      <c r="D18" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="85">
+      <c r="A19" s="87">
         <v>5</v>
       </c>
-      <c r="B19" s="85" t="s">
-        <v>976</v>
-      </c>
-      <c r="C19" s="85">
+      <c r="B19" s="87" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="87">
         <v>33</v>
       </c>
-      <c r="D19" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>977</v>
+      <c r="D19" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="85">
+      <c r="A20" s="87">
         <v>6</v>
       </c>
-      <c r="B20" s="85" t="s">
-        <v>978</v>
-      </c>
-      <c r="C20" s="85">
+      <c r="B20" s="87" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="87">
         <v>43</v>
       </c>
-      <c r="D20" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>979</v>
+      <c r="D20" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75">
-      <c r="A21" s="85">
+      <c r="A21" s="87">
         <v>7</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>980</v>
-      </c>
-      <c r="C21" s="85">
+      <c r="B21" s="87" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C21" s="87">
         <v>8</v>
       </c>
-      <c r="D21" s="85" t="s">
-        <v>968</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>981</v>
+      <c r="D21" s="87" t="s">
+        <v>992</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -12218,8 +12379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -13153,8 +13314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A48"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -13283,7 +13444,7 @@
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="57" outlineLevel="2">
       <c r="A12" s="14" t="s">
-        <v>983</v>
+        <v>1007</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
@@ -13305,7 +13466,7 @@
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="78" outlineLevel="2">
       <c r="A13" s="14" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>164</v>
@@ -13329,7 +13490,7 @@
     </row>
     <row r="14" spans="1:8" ht="99" outlineLevel="2">
       <c r="A14" s="14" t="s">
-        <v>985</v>
+        <v>1009</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>172</v>
@@ -13353,7 +13514,7 @@
     </row>
     <row r="15" spans="1:8" ht="90">
       <c r="A15" s="14" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>172</v>
@@ -13377,7 +13538,7 @@
     </row>
     <row r="16" spans="1:8" ht="105">
       <c r="A16" s="14" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>172</v>
@@ -13401,7 +13562,7 @@
     </row>
     <row r="17" spans="1:8" ht="105">
       <c r="A17" s="14" t="s">
-        <v>988</v>
+        <v>1012</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>172</v>
@@ -13425,7 +13586,7 @@
     </row>
     <row r="18" spans="1:8" ht="339">
       <c r="A18" s="14" t="s">
-        <v>989</v>
+        <v>1013</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>187</v>
@@ -13449,7 +13610,7 @@
     </row>
     <row r="19" spans="1:8" ht="300">
       <c r="A19" s="14" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>187</v>
@@ -13473,7 +13634,7 @@
     </row>
     <row r="20" spans="1:8" ht="90">
       <c r="A20" s="14" t="s">
-        <v>991</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>172</v>
@@ -13497,7 +13658,7 @@
     </row>
     <row r="21" spans="1:8" ht="150">
       <c r="A21" s="14" t="s">
-        <v>992</v>
+        <v>1016</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>172</v>
@@ -13521,7 +13682,7 @@
     </row>
     <row r="22" spans="1:8" ht="150">
       <c r="A22" s="14" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>172</v>
@@ -13545,7 +13706,7 @@
     </row>
     <row r="23" spans="1:8" ht="153">
       <c r="A23" s="14" t="s">
-        <v>994</v>
+        <v>1018</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>203</v>
@@ -13569,7 +13730,7 @@
     </row>
     <row r="24" spans="1:8" ht="150">
       <c r="A24" s="14" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>203</v>
@@ -13593,7 +13754,7 @@
     </row>
     <row r="25" spans="1:8" ht="60">
       <c r="A25" s="14" t="s">
-        <v>996</v>
+        <v>1020</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>164</v>
@@ -13617,7 +13778,7 @@
     </row>
     <row r="26" spans="1:8" ht="120">
       <c r="A26" s="14" t="s">
-        <v>997</v>
+        <v>1021</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>214</v>
@@ -13641,7 +13802,7 @@
     </row>
     <row r="27" spans="1:8" ht="105">
       <c r="A27" s="14" t="s">
-        <v>998</v>
+        <v>1022</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>219</v>
@@ -13665,7 +13826,7 @@
     </row>
     <row r="28" spans="1:8" ht="150">
       <c r="A28" s="14" t="s">
-        <v>999</v>
+        <v>1023</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>203</v>
@@ -13689,7 +13850,7 @@
     </row>
     <row r="29" spans="1:8" ht="67.5">
       <c r="A29" s="14" t="s">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>164</v>
@@ -13713,7 +13874,7 @@
     </row>
     <row r="30" spans="1:8" ht="156">
       <c r="A30" s="14" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>229</v>
@@ -13737,7 +13898,7 @@
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>234</v>
@@ -13761,7 +13922,7 @@
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="14" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>234</v>
@@ -13785,7 +13946,7 @@
     </row>
     <row r="33" spans="1:8" ht="153">
       <c r="A33" s="14" t="s">
-        <v>1004</v>
+        <v>1028</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>234</v>
@@ -13809,7 +13970,7 @@
     </row>
     <row r="34" spans="1:8" ht="165">
       <c r="A34" s="14" t="s">
-        <v>1005</v>
+        <v>1029</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>203</v>
@@ -13833,7 +13994,7 @@
     </row>
     <row r="35" spans="1:8" ht="60">
       <c r="A35" s="14" t="s">
-        <v>1006</v>
+        <v>1030</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>164</v>
@@ -13857,7 +14018,7 @@
     </row>
     <row r="36" spans="1:8" ht="183">
       <c r="A36" s="14" t="s">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>254</v>
@@ -13881,7 +14042,7 @@
     </row>
     <row r="37" spans="1:8" ht="198">
       <c r="A37" s="14" t="s">
-        <v>1008</v>
+        <v>1032</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>254</v>
@@ -13905,7 +14066,7 @@
     </row>
     <row r="38" spans="1:8" ht="45">
       <c r="A38" s="14" t="s">
-        <v>1009</v>
+        <v>1033</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>262</v>
@@ -13929,7 +14090,7 @@
     </row>
     <row r="39" spans="1:8" ht="90">
       <c r="A39" s="14" t="s">
-        <v>1010</v>
+        <v>1034</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>262</v>
@@ -13953,7 +14114,7 @@
     </row>
     <row r="40" spans="1:8" ht="150">
       <c r="A40" s="14" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>203</v>
@@ -13977,7 +14138,7 @@
     </row>
     <row r="41" spans="1:8" ht="60">
       <c r="A41" s="14" t="s">
-        <v>1012</v>
+        <v>1036</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>164</v>
@@ -14001,7 +14162,7 @@
     </row>
     <row r="42" spans="1:8" ht="60">
       <c r="A42" s="14" t="s">
-        <v>1013</v>
+        <v>1037</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>214</v>
@@ -14025,7 +14186,7 @@
     </row>
     <row r="43" spans="1:8" ht="60">
       <c r="A43" s="14" t="s">
-        <v>1014</v>
+        <v>1038</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>214</v>
@@ -14049,7 +14210,7 @@
     </row>
     <row r="44" spans="1:8" ht="135">
       <c r="A44" s="14" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>203</v>
@@ -14073,7 +14234,7 @@
     </row>
     <row r="45" spans="1:8" ht="60">
       <c r="A45" s="14" t="s">
-        <v>1016</v>
+        <v>1040</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>164</v>
@@ -14096,7 +14257,7 @@
     </row>
     <row r="46" spans="1:8" ht="240">
       <c r="A46" s="14" t="s">
-        <v>1017</v>
+        <v>1041</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>287</v>
@@ -14119,7 +14280,7 @@
     </row>
     <row r="47" spans="1:8" ht="189">
       <c r="A47" s="14" t="s">
-        <v>1018</v>
+        <v>1042</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>292</v>
@@ -14140,7 +14301,7 @@
     </row>
     <row r="48" spans="1:8" ht="120">
       <c r="A48" s="14" t="s">
-        <v>1019</v>
+        <v>1043</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>203</v>
@@ -14185,10 +14346,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14530,7 +14691,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="105">
+    <row r="21" spans="1:8" ht="90">
       <c r="A21" s="14" t="s">
         <v>340</v>
       </c>
@@ -15073,11 +15234,6 @@
         <v>177</v>
       </c>
       <c r="H43" s="16"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="D47" s="3" t="s">
-        <v>440</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15106,9 +15262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15152,7 +15307,6 @@
     <row r="4" spans="1:8">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
-      <c r="C4" s="88"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -15160,7 +15314,6 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="C5" s="88"/>
       <c r="D5" s="5"/>
       <c r="E5" s="8" t="s">
         <v>4</v>
@@ -15168,7 +15321,6 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="C6" s="88"/>
       <c r="D6" s="5"/>
       <c r="E6" s="9" t="s">
         <v>5</v>
@@ -15177,7 +15329,6 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" s="88"/>
       <c r="D7" s="5"/>
       <c r="E7" s="11" t="s">
         <v>6</v>
@@ -15186,7 +15337,6 @@
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="C8" s="88"/>
       <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
@@ -15239,7 +15389,7 @@
       <c r="G11" s="106"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" s="13" customFormat="1" ht="285">
+    <row r="12" spans="1:8" s="13" customFormat="1" ht="217.5">
       <c r="A12" s="47" t="s">
         <v>441</v>
       </c>
@@ -15247,170 +15397,170 @@
         <v>442</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>1064</v>
+        <v>443</v>
       </c>
       <c r="D12" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>1063</v>
+        <v>444</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>1044</v>
       </c>
       <c r="G12" s="47"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="13" customFormat="1" ht="124.5" customHeight="1">
+    <row r="13" spans="1:8" s="13" customFormat="1" ht="113.25">
       <c r="A13" s="47" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>445</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>1066</v>
+        <v>447</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>448</v>
       </c>
       <c r="G13" s="47"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="105">
       <c r="A14" s="47" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B14" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>1067</v>
+        <v>450</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>1068</v>
+        <v>451</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F14" s="50" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G14" s="51"/>
+        <v>452</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="G14" s="53"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" ht="165">
+    <row r="15" spans="1:8" ht="150">
       <c r="A15" s="47" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B15" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>1071</v>
+        <v>455</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>1072</v>
+        <v>456</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>1073</v>
+        <v>457</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>458</v>
       </c>
       <c r="G15" s="47"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="165">
+    <row r="16" spans="1:8" ht="150">
       <c r="A16" s="47" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B16" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>1074</v>
+        <v>460</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>1072</v>
+        <v>456</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>1075</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>1076</v>
+        <v>461</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>462</v>
       </c>
       <c r="G16" s="47"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="165">
+    <row r="17" spans="1:8" ht="150">
       <c r="A17" s="47" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="B17" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>1077</v>
+        <v>464</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>1072</v>
+        <v>456</v>
       </c>
       <c r="E17" s="49" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>1079</v>
+        <v>465</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>466</v>
       </c>
       <c r="G17" s="47"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" ht="180">
+    <row r="18" spans="1:8" ht="161.25">
       <c r="A18" s="47" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
       <c r="B18" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>1080</v>
+        <v>468</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>1081</v>
+        <v>469</v>
       </c>
       <c r="E18" s="49" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>1083</v>
+        <v>470</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>471</v>
       </c>
       <c r="G18" s="47"/>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" ht="210">
+    <row r="19" spans="1:8" ht="191.25">
       <c r="A19" s="47" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B19" s="47" t="s">
         <v>442</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>1084</v>
+        <v>473</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>1085</v>
+        <v>474</v>
       </c>
       <c r="E19" s="49" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>1087</v>
+        <v>475</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>476</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="23"/>
@@ -15455,14 +15605,10 @@
       <c r="G23" s="46"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="D25" s="89"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="D26" s="89"/>
-    </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="89"/>
+      <c r="D27" s="3" t="s">
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15478,7 +15624,6 @@
     <mergeCell ref="G9:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15492,21 +15637,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15" style="62" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="56" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
-      <c r="D2" s="55"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
@@ -15516,14 +15661,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="62">
         <f>COUNTIF(A12:A23,"TS*")</f>
         <v>12</v>
       </c>
@@ -15531,41 +15676,41 @@
     <row r="4" spans="1:8">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D5" s="55"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="55"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="F6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="55"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="111" t="s">
@@ -15583,11 +15728,11 @@
       <c r="E9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="111"/>
@@ -15595,11 +15740,11 @@
       <c r="C10" s="113"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="116"/>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
@@ -15609,142 +15754,142 @@
       <c r="C11" s="114"/>
       <c r="D11" s="111"/>
       <c r="E11" s="111"/>
-      <c r="F11" s="74"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="117"/>
-      <c r="H11" s="74"/>
-    </row>
-    <row r="12" spans="1:8" s="76" customFormat="1" ht="119.25">
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" s="78" customFormat="1" ht="119.25">
       <c r="A12" s="16" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="76" customFormat="1" ht="132">
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="132">
       <c r="A13" s="16" t="s">
-        <v>568</v>
+        <v>592</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>459</v>
+        <v>483</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="147">
       <c r="A14" s="16" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="134.25">
       <c r="A15" s="16" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>465</v>
+        <v>489</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="255">
+    <row r="16" spans="1:8" ht="270">
       <c r="A16" s="16" t="s">
-        <v>571</v>
+        <v>595</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="255">
+    <row r="17" spans="1:8" ht="270">
       <c r="A17" s="16" t="s">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>18</v>
@@ -15753,22 +15898,22 @@
     </row>
     <row r="18" spans="1:8" ht="270">
       <c r="A18" s="16" t="s">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>18</v>
@@ -15777,22 +15922,22 @@
     </row>
     <row r="19" spans="1:8" ht="270">
       <c r="A19" s="16" t="s">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>18</v>
@@ -15801,22 +15946,22 @@
     </row>
     <row r="20" spans="1:8" ht="150">
       <c r="A20" s="16" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>18</v>
@@ -15825,198 +15970,198 @@
     </row>
     <row r="21" spans="1:8" ht="180">
       <c r="A21" s="16" t="s">
-        <v>576</v>
+        <v>600</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="270">
       <c r="A22" s="16" t="s">
-        <v>577</v>
+        <v>601</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="255">
       <c r="A23" s="16" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="409.5">
       <c r="A24" s="16" t="s">
-        <v>579</v>
+        <v>603</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>518</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="D24" s="42" t="s">
-        <v>470</v>
-      </c>
       <c r="E24" s="43" t="s">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="210">
       <c r="A25" s="16" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="F25" s="42" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="210">
       <c r="A26" s="16" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="G26" s="46"/>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="225">
       <c r="A27" s="16" t="s">
-        <v>582</v>
+        <v>606</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="90">
       <c r="A28" s="16" t="s">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="90">
       <c r="A29" s="16" t="s">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="G29" s="15" t="s">
         <v>18</v>
@@ -16025,22 +16170,22 @@
     </row>
     <row r="30" spans="1:8" ht="60">
       <c r="A30" s="16" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>18</v>
@@ -16049,88 +16194,88 @@
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="16" t="s">
-        <v>586</v>
+        <v>610</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="16" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="165">
       <c r="A33" s="16" t="s">
-        <v>588</v>
+        <v>612</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="45">
       <c r="A34" s="16" t="s">
-        <v>589</v>
+        <v>613</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="G34" s="15" t="s">
         <v>18</v>
@@ -16139,22 +16284,22 @@
     </row>
     <row r="35" spans="1:8" ht="45">
       <c r="A35" s="16" t="s">
-        <v>590</v>
+        <v>614</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="G35" s="15" t="s">
         <v>18</v>
@@ -16163,198 +16308,198 @@
     </row>
     <row r="36" spans="1:8" ht="60">
       <c r="A36" s="16" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="60">
       <c r="A37" s="16" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="60">
       <c r="A38" s="16" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="45">
       <c r="A39" s="16" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="60">
       <c r="A40" s="16" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="G40" s="47"/>
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="45">
       <c r="A41" s="16" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="G41" s="47"/>
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="75">
       <c r="A42" s="16" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>558</v>
-      </c>
-      <c r="E42" s="77" t="s">
-        <v>559</v>
+        <v>581</v>
+      </c>
+      <c r="D42" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="E42" s="79" t="s">
+        <v>583</v>
       </c>
       <c r="F42" s="47" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="G42" s="47"/>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="45">
       <c r="A43" s="16" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>562</v>
+        <v>498</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>586</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="G43" s="47"/>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="45">
       <c r="A44" s="16" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="D44" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>565</v>
+        <v>498</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>589</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="G44" s="47"/>
       <c r="H44" s="16"/>
@@ -16386,21 +16531,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15" style="62" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="57" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="56" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
-      <c r="D2" s="55"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
@@ -16410,14 +16555,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="62">
         <f>COUNTIF(A12:A23,"SM*")</f>
         <v>12</v>
       </c>
@@ -16425,41 +16570,41 @@
     <row r="4" spans="1:8">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D5" s="55"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="55"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="F6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="55"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="111" t="s">
@@ -16477,11 +16622,11 @@
       <c r="E9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="111"/>
@@ -16489,11 +16634,11 @@
       <c r="C10" s="113"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="75" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="116"/>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="75" t="s">
         <v>163</v>
       </c>
     </row>
@@ -16503,19 +16648,19 @@
       <c r="C11" s="114"/>
       <c r="D11" s="111"/>
       <c r="E11" s="111"/>
-      <c r="F11" s="75"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="117"/>
-      <c r="H11" s="75"/>
-    </row>
-    <row r="12" spans="1:8" s="76" customFormat="1" ht="57">
+      <c r="H11" s="77"/>
+    </row>
+    <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
       <c r="A12" s="14" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34" t="s">
@@ -16529,24 +16674,24 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="76" customFormat="1" ht="90">
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="90">
       <c r="A13" s="14" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>18</v>
@@ -16555,22 +16700,22 @@
     </row>
     <row r="14" spans="1:8" ht="60">
       <c r="A14" s="14" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>18</v>
@@ -16579,22 +16724,22 @@
     </row>
     <row r="15" spans="1:8" ht="90">
       <c r="A15" s="14" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>82</v>
@@ -16603,978 +16748,978 @@
     </row>
     <row r="16" spans="1:8" ht="75">
       <c r="A16" s="14" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>622</v>
-      </c>
-      <c r="G16" s="78" t="s">
+        <v>646</v>
+      </c>
+      <c r="G16" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="75">
       <c r="A17" s="14" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="G17" s="78" t="s">
+        <v>650</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="90">
       <c r="A18" s="14" t="s">
-        <v>627</v>
+        <v>651</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="G18" s="78" t="s">
+        <v>654</v>
+      </c>
+      <c r="G18" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="90">
       <c r="A19" s="14" t="s">
-        <v>631</v>
+        <v>655</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>632</v>
+        <v>656</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>633</v>
+        <v>657</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>634</v>
-      </c>
-      <c r="G19" s="78" t="s">
+        <v>658</v>
+      </c>
+      <c r="G19" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="87">
       <c r="A20" s="14" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>639</v>
-      </c>
-      <c r="G20" s="78" t="s">
+        <v>663</v>
+      </c>
+      <c r="G20" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="75">
       <c r="A21" s="14" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="G21" s="78" t="s">
+        <v>650</v>
+      </c>
+      <c r="G21" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="90">
       <c r="A22" s="14" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="G22" s="78" t="s">
+        <v>670</v>
+      </c>
+      <c r="G22" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="90">
       <c r="A23" s="14" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="G23" s="78" t="s">
+        <v>674</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="105">
       <c r="A24" s="14" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="G24" s="78" t="s">
+        <v>679</v>
+      </c>
+      <c r="G24" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8" ht="141">
       <c r="A25" s="14" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>659</v>
-      </c>
-      <c r="G25" s="78" t="s">
+        <v>683</v>
+      </c>
+      <c r="G25" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="141">
       <c r="A26" s="14" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>664</v>
-      </c>
-      <c r="G26" s="78" t="s">
+        <v>688</v>
+      </c>
+      <c r="G26" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" ht="141">
       <c r="A27" s="14" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>668</v>
-      </c>
-      <c r="G27" s="78" t="s">
+        <v>692</v>
+      </c>
+      <c r="G27" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="237">
       <c r="A28" s="14" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>672</v>
-      </c>
-      <c r="G28" s="78" t="s">
+        <v>696</v>
+      </c>
+      <c r="G28" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="123">
       <c r="A29" s="14" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="G29" s="78" t="s">
+        <v>702</v>
+      </c>
+      <c r="G29" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" ht="105">
       <c r="A30" s="14" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G30" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="G30" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" ht="111">
       <c r="A31" s="14" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="G31" s="78" t="s">
+        <v>710</v>
+      </c>
+      <c r="G31" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" ht="111">
       <c r="A32" s="14" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="G32" s="78" t="s">
+        <v>714</v>
+      </c>
+      <c r="G32" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8" ht="78">
       <c r="A33" s="14" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>695</v>
-      </c>
-      <c r="G33" s="78" t="s">
+        <v>719</v>
+      </c>
+      <c r="G33" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8" ht="99">
       <c r="A34" s="14" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="G34" s="78" t="s">
+        <v>723</v>
+      </c>
+      <c r="G34" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8" ht="99">
       <c r="A35" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="D35" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>676</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>703</v>
+        <v>727</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="G35" s="78" t="s">
+        <v>728</v>
+      </c>
+      <c r="G35" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H35" s="16"/>
     </row>
     <row r="36" spans="1:8" ht="96">
       <c r="A36" s="14" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>708</v>
-      </c>
-      <c r="F36" s="79" t="s">
-        <v>709</v>
-      </c>
-      <c r="G36" s="78" t="s">
+        <v>732</v>
+      </c>
+      <c r="F36" s="81" t="s">
+        <v>733</v>
+      </c>
+      <c r="G36" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H36" s="16"/>
     </row>
     <row r="37" spans="1:8" ht="126">
       <c r="A37" s="14" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>735</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="F37" s="16" t="s">
         <v>706</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>711</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G37" s="78" t="s">
+      <c r="G37" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:8" ht="111">
       <c r="A38" s="14" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>716</v>
-      </c>
-      <c r="G38" s="78" t="s">
+        <v>740</v>
+      </c>
+      <c r="G38" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H38" s="16"/>
     </row>
     <row r="39" spans="1:8" ht="117">
       <c r="A39" s="14" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>721</v>
-      </c>
-      <c r="G39" s="78" t="s">
+        <v>745</v>
+      </c>
+      <c r="G39" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H39" s="16"/>
     </row>
     <row r="40" spans="1:8" ht="123">
       <c r="A40" s="14" t="s">
-        <v>722</v>
+        <v>746</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>723</v>
+        <v>747</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>724</v>
+        <v>748</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>725</v>
+        <v>749</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>726</v>
+        <v>750</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>727</v>
-      </c>
-      <c r="G40" s="78" t="s">
+        <v>751</v>
+      </c>
+      <c r="G40" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="90">
       <c r="A41" s="14" t="s">
-        <v>728</v>
+        <v>752</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>730</v>
+        <v>754</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>731</v>
+        <v>755</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>732</v>
+        <v>756</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>733</v>
-      </c>
-      <c r="G41" s="78" t="s">
+        <v>757</v>
+      </c>
+      <c r="G41" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H41" s="16"/>
     </row>
     <row r="42" spans="1:8" ht="126">
       <c r="A42" s="14" t="s">
-        <v>734</v>
+        <v>758</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>735</v>
+        <v>759</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>736</v>
+        <v>760</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>737</v>
+        <v>761</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>738</v>
-      </c>
-      <c r="G42" s="78" t="s">
+        <v>762</v>
+      </c>
+      <c r="G42" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="171">
       <c r="A43" s="14" t="s">
-        <v>739</v>
+        <v>763</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>740</v>
+        <v>764</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>742</v>
+        <v>766</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>743</v>
-      </c>
-      <c r="G43" s="78" t="s">
+        <v>767</v>
+      </c>
+      <c r="G43" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="171">
       <c r="A44" s="14" t="s">
-        <v>744</v>
+        <v>768</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>745</v>
+        <v>769</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>747</v>
+        <v>771</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>748</v>
-      </c>
-      <c r="G44" s="78" t="s">
+        <v>772</v>
+      </c>
+      <c r="G44" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H44" s="16"/>
     </row>
     <row r="45" spans="1:8" ht="114">
       <c r="A45" s="14" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>750</v>
+        <v>774</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>751</v>
+        <v>775</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="G45" s="78"/>
+        <v>777</v>
+      </c>
+      <c r="G45" s="80"/>
       <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" ht="150">
       <c r="A46" s="14" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>758</v>
-      </c>
-      <c r="G46" s="78"/>
+        <v>782</v>
+      </c>
+      <c r="G46" s="80"/>
       <c r="H46" s="16"/>
     </row>
     <row r="47" spans="1:8" ht="60">
       <c r="A47" s="14" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="G47" s="78"/>
+        <v>787</v>
+      </c>
+      <c r="G47" s="80"/>
       <c r="H47" s="16"/>
     </row>
     <row r="48" spans="1:8" ht="150">
       <c r="A48" s="14" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>765</v>
+        <v>789</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>766</v>
+        <v>790</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>682</v>
-      </c>
-      <c r="G48" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="G48" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H48" s="16"/>
     </row>
     <row r="49" spans="1:8" ht="165">
       <c r="A49" s="14" t="s">
-        <v>767</v>
+        <v>791</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>768</v>
+        <v>792</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>769</v>
+        <v>793</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>770</v>
-      </c>
-      <c r="G49" s="78" t="s">
+        <v>794</v>
+      </c>
+      <c r="G49" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8" ht="165">
       <c r="A50" s="14" t="s">
-        <v>771</v>
+        <v>795</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>772</v>
+        <v>796</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>773</v>
+        <v>797</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="G50" s="78" t="s">
+        <v>798</v>
+      </c>
+      <c r="G50" s="80" t="s">
         <v>82</v>
       </c>
       <c r="H50" s="16"/>
     </row>
     <row r="51" spans="1:8" ht="45">
       <c r="A51" s="14" t="s">
-        <v>775</v>
+        <v>799</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>776</v>
+        <v>800</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>778</v>
+        <v>802</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="G51" s="78" t="s">
+        <v>803</v>
+      </c>
+      <c r="G51" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H51" s="16"/>
     </row>
     <row r="52" spans="1:8" ht="45">
       <c r="A52" s="14" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>777</v>
+        <v>801</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="G52" s="78" t="s">
+        <v>807</v>
+      </c>
+      <c r="G52" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H52" s="16"/>
     </row>
     <row r="53" spans="1:8" ht="60">
       <c r="A53" s="14" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>785</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>786</v>
-      </c>
-      <c r="E53" s="77" t="s">
-        <v>787</v>
+        <v>809</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>810</v>
+      </c>
+      <c r="E53" s="79" t="s">
+        <v>811</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>788</v>
-      </c>
-      <c r="G53" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="G53" s="82" t="s">
         <v>18</v>
       </c>
       <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" ht="60">
       <c r="A54" s="14" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>790</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>791</v>
-      </c>
-      <c r="E54" s="77" t="s">
-        <v>787</v>
+        <v>814</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>815</v>
+      </c>
+      <c r="E54" s="79" t="s">
+        <v>811</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>788</v>
-      </c>
-      <c r="G54" s="80" t="s">
+        <v>812</v>
+      </c>
+      <c r="G54" s="82" t="s">
         <v>18</v>
       </c>
       <c r="H54" s="16"/>
     </row>
     <row r="55" spans="1:8" ht="90">
       <c r="A55" s="14" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>729</v>
+        <v>753</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>793</v>
-      </c>
-      <c r="D55" s="77" t="s">
-        <v>786</v>
+        <v>817</v>
+      </c>
+      <c r="D55" s="79" t="s">
+        <v>810</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>794</v>
-      </c>
-      <c r="F55" s="50" t="s">
-        <v>795</v>
-      </c>
-      <c r="G55" s="80" t="s">
+        <v>818</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>819</v>
+      </c>
+      <c r="G55" s="82" t="s">
         <v>18</v>
       </c>
       <c r="H55" s="16"/>
     </row>
     <row r="56" spans="1:8" ht="60">
       <c r="A56" s="14" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>798</v>
-      </c>
-      <c r="D56" s="77" t="s">
-        <v>786</v>
+        <v>822</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>810</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>799</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>800</v>
-      </c>
-      <c r="G56" s="80" t="s">
+        <v>823</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>824</v>
+      </c>
+      <c r="G56" s="82" t="s">
         <v>18</v>
       </c>
       <c r="H56" s="16"/>
@@ -17611,21 +17756,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="15" style="62" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="56" customWidth="1"/>
-    <col min="5" max="5" width="43.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" style="56" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="56" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="56"/>
+    <col min="1" max="1" width="15" style="64" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="64" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="58" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="66" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" style="58" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="A2" s="107"/>
       <c r="B2" s="107"/>
-      <c r="D2" s="55"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="108" t="s">
         <v>0</v>
       </c>
@@ -17635,14 +17780,14 @@
     <row r="3" spans="1:8">
       <c r="A3" s="92"/>
       <c r="B3" s="92"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="62">
         <f>COUNTIF(A12:A23,"SM*")</f>
         <v>0</v>
       </c>
@@ -17650,41 +17795,41 @@
     <row r="4" spans="1:8">
       <c r="A4" s="110"/>
       <c r="B4" s="110"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="61" t="s">
+      <c r="D4" s="57"/>
+      <c r="E4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1">
-      <c r="D5" s="55"/>
-      <c r="E5" s="63" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="D6" s="55"/>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="H6" s="67"/>
+      <c r="F6" s="69"/>
+      <c r="H6" s="69"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="D7" s="55"/>
-      <c r="E7" s="68" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="69"/>
+      <c r="H7" s="69"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1">
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="69"/>
+      <c r="H8" s="69"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="111" t="s">
@@ -17702,11 +17847,11 @@
       <c r="E9" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="H9" s="70"/>
+      <c r="H9" s="72"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="111"/>
@@ -17714,11 +17859,11 @@
       <c r="C10" s="113"/>
       <c r="D10" s="111"/>
       <c r="E10" s="111"/>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="74" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="116"/>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="74" t="s">
         <v>163</v>
       </c>
     </row>
@@ -17728,19 +17873,19 @@
       <c r="C11" s="114"/>
       <c r="D11" s="111"/>
       <c r="E11" s="111"/>
-      <c r="F11" s="74"/>
+      <c r="F11" s="76"/>
       <c r="G11" s="117"/>
-      <c r="H11" s="74"/>
-    </row>
-    <row r="12" spans="1:8" s="76" customFormat="1" ht="57">
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" s="78" customFormat="1" ht="57">
       <c r="A12" s="14" t="s">
-        <v>1020</v>
+        <v>1045</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="34" t="s">
@@ -17754,970 +17899,970 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="76" customFormat="1" ht="105">
+    <row r="13" spans="1:8" s="78" customFormat="1" ht="105">
       <c r="A13" s="14" t="s">
-        <v>1021</v>
+        <v>1046</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>805</v>
-      </c>
-      <c r="G13" s="78" t="s">
+        <v>829</v>
+      </c>
+      <c r="G13" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:8" ht="69">
       <c r="A14" s="14" t="s">
-        <v>1022</v>
+        <v>1047</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>806</v>
+        <v>830</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>807</v>
-      </c>
-      <c r="G14" s="78" t="s">
+        <v>831</v>
+      </c>
+      <c r="G14" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="150">
       <c r="A15" s="14" t="s">
-        <v>1023</v>
+        <v>1048</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>808</v>
+        <v>832</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="G15" s="78" t="s">
+        <v>835</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="300">
+    <row r="16" spans="1:8" ht="285">
       <c r="A16" s="14" t="s">
-        <v>1024</v>
+        <v>1049</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>813</v>
+        <v>837</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>814</v>
-      </c>
-      <c r="G16" s="78" t="s">
+        <v>838</v>
+      </c>
+      <c r="G16" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="219">
       <c r="A17" s="14" t="s">
-        <v>1025</v>
+        <v>1050</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>815</v>
+        <v>839</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>817</v>
-      </c>
-      <c r="G17" s="78" t="s">
+        <v>841</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>177</v>
       </c>
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="117">
       <c r="A18" s="14" t="s">
-        <v>1026</v>
+        <v>1051</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>821</v>
+        <v>845</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>822</v>
-      </c>
-      <c r="G18" s="78" t="s">
+        <v>846</v>
+      </c>
+      <c r="G18" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="90">
       <c r="A19" s="14" t="s">
-        <v>1027</v>
+        <v>1052</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>823</v>
+        <v>847</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>824</v>
+        <v>848</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>820</v>
+        <v>844</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>825</v>
+        <v>849</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="G19" s="78" t="s">
+        <v>850</v>
+      </c>
+      <c r="G19" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="183">
       <c r="A20" s="14" t="s">
-        <v>1028</v>
+        <v>1053</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>828</v>
+        <v>852</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>830</v>
+        <v>854</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>831</v>
-      </c>
-      <c r="G20" s="78" t="s">
+        <v>855</v>
+      </c>
+      <c r="G20" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8" ht="186">
       <c r="A21" s="14" t="s">
-        <v>1029</v>
+        <v>1054</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>832</v>
+        <v>856</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>833</v>
+        <v>857</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>835</v>
-      </c>
-      <c r="G21" s="78" t="s">
+        <v>859</v>
+      </c>
+      <c r="G21" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="120">
       <c r="A22" s="14" t="s">
-        <v>1030</v>
+        <v>1055</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>839</v>
-      </c>
-      <c r="G22" s="78" t="s">
+        <v>863</v>
+      </c>
+      <c r="G22" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" ht="69">
       <c r="A23" s="14" t="s">
-        <v>1031</v>
+        <v>1056</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="G23" s="78" t="s">
+        <v>866</v>
+      </c>
+      <c r="G23" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="69">
       <c r="A24" s="14" t="s">
-        <v>1032</v>
+        <v>1057</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>844</v>
+        <v>868</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>845</v>
-      </c>
-      <c r="G24" s="78" t="s">
+        <v>869</v>
+      </c>
+      <c r="G24" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="105">
       <c r="A25" s="14" t="s">
-        <v>1033</v>
+        <v>1058</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>846</v>
+        <v>870</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="G25" s="78" t="s">
+        <v>872</v>
+      </c>
+      <c r="G25" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="105">
       <c r="A26" s="14" t="s">
-        <v>1034</v>
+        <v>1059</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>829</v>
+        <v>853</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>850</v>
+        <v>874</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>851</v>
-      </c>
-      <c r="G26" s="78" t="s">
+        <v>875</v>
+      </c>
+      <c r="G26" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="60">
       <c r="A27" s="14" t="s">
-        <v>1035</v>
+        <v>1060</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>853</v>
+        <v>877</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>855</v>
+        <v>879</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>856</v>
-      </c>
-      <c r="G27" s="78" t="s">
+        <v>880</v>
+      </c>
+      <c r="G27" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="66">
       <c r="A28" s="14" t="s">
-        <v>1036</v>
+        <v>1061</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>857</v>
+        <v>881</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>858</v>
+        <v>882</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="G28" s="78" t="s">
+        <v>883</v>
+      </c>
+      <c r="G28" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="60">
       <c r="A29" s="14" t="s">
-        <v>1037</v>
+        <v>1062</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>860</v>
+        <v>884</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>861</v>
+        <v>885</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>862</v>
-      </c>
-      <c r="G29" s="78" t="s">
+        <v>886</v>
+      </c>
+      <c r="G29" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="90">
       <c r="A30" s="14" t="s">
-        <v>1038</v>
+        <v>1063</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>852</v>
+        <v>876</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>854</v>
+        <v>878</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>864</v>
+        <v>888</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="G30" s="78"/>
+        <v>889</v>
+      </c>
+      <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:8" ht="90">
       <c r="A31" s="14" t="s">
-        <v>1039</v>
+        <v>1064</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>869</v>
-      </c>
-      <c r="G31" s="81" t="s">
+        <v>893</v>
+      </c>
+      <c r="G31" s="83" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="90">
       <c r="A32" s="14" t="s">
-        <v>1040</v>
+        <v>1065</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>873</v>
-      </c>
-      <c r="G32" s="81"/>
+        <v>897</v>
+      </c>
+      <c r="G32" s="83"/>
     </row>
     <row r="33" spans="1:7" ht="171">
       <c r="A33" s="14" t="s">
-        <v>1041</v>
+        <v>1066</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>876</v>
-      </c>
-      <c r="G33" s="81"/>
+        <v>900</v>
+      </c>
+      <c r="G33" s="83"/>
     </row>
     <row r="34" spans="1:7" ht="231">
       <c r="A34" s="14" t="s">
-        <v>1042</v>
+        <v>1067</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>881</v>
-      </c>
-      <c r="G34" s="78" t="s">
+        <v>905</v>
+      </c>
+      <c r="G34" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="240">
       <c r="A35" s="14" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B35" s="82" t="s">
-        <v>882</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>883</v>
-      </c>
-      <c r="D35" s="83" t="s">
-        <v>879</v>
-      </c>
-      <c r="E35" s="83" t="s">
-        <v>884</v>
-      </c>
-      <c r="F35" s="83" t="s">
-        <v>885</v>
-      </c>
-      <c r="G35" s="84" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>906</v>
+      </c>
+      <c r="C35" s="84" t="s">
+        <v>907</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>903</v>
+      </c>
+      <c r="E35" s="85" t="s">
+        <v>908</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>909</v>
+      </c>
+      <c r="G35" s="86" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60">
       <c r="A36" s="14" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B36" s="82" t="s">
-        <v>836</v>
-      </c>
-      <c r="C36" s="82" t="s">
-        <v>886</v>
-      </c>
-      <c r="D36" s="83" t="s">
-        <v>887</v>
-      </c>
-      <c r="E36" s="83" t="s">
-        <v>888</v>
-      </c>
-      <c r="F36" s="82" t="s">
-        <v>889</v>
-      </c>
-      <c r="G36" s="84" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>860</v>
+      </c>
+      <c r="C36" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>911</v>
+      </c>
+      <c r="E36" s="85" t="s">
+        <v>912</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>913</v>
+      </c>
+      <c r="G36" s="86" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60">
       <c r="A37" s="14" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B37" s="82" t="s">
-        <v>836</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>886</v>
-      </c>
-      <c r="D37" s="83" t="s">
-        <v>890</v>
-      </c>
-      <c r="E37" s="83" t="s">
-        <v>891</v>
-      </c>
-      <c r="F37" s="82" t="s">
-        <v>892</v>
-      </c>
-      <c r="G37" s="84"/>
+        <v>1070</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>860</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>910</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>914</v>
+      </c>
+      <c r="E37" s="85" t="s">
+        <v>915</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>916</v>
+      </c>
+      <c r="G37" s="86"/>
     </row>
     <row r="38" spans="1:7" ht="120">
       <c r="A38" s="14" t="s">
-        <v>1046</v>
+        <v>1071</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>895</v>
+        <v>919</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="G38" s="78" t="s">
+        <v>920</v>
+      </c>
+      <c r="G38" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="135">
       <c r="A39" s="14" t="s">
-        <v>1047</v>
+        <v>1072</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>897</v>
+        <v>921</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>898</v>
+        <v>922</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>900</v>
+        <v>924</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="G39" s="78" t="s">
+        <v>925</v>
+      </c>
+      <c r="G39" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="195">
       <c r="A40" s="14" t="s">
-        <v>1048</v>
+        <v>1073</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>902</v>
+        <v>926</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>903</v>
+        <v>927</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>905</v>
+        <v>929</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="G40" s="78" t="s">
+        <v>930</v>
+      </c>
+      <c r="G40" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="225">
       <c r="A41" s="14" t="s">
-        <v>1049</v>
+        <v>1074</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>908</v>
+        <v>932</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>904</v>
+        <v>928</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>909</v>
+        <v>933</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>910</v>
-      </c>
-      <c r="G41" s="78" t="s">
+        <v>934</v>
+      </c>
+      <c r="G41" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="120">
       <c r="A42" s="14" t="s">
-        <v>1050</v>
+        <v>1075</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>907</v>
+        <v>931</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>911</v>
+        <v>935</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>912</v>
+        <v>936</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>913</v>
+        <v>937</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="G42" s="78" t="s">
+        <v>938</v>
+      </c>
+      <c r="G42" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="150">
       <c r="A43" s="14" t="s">
-        <v>1051</v>
+        <v>1076</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>916</v>
+        <v>940</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>919</v>
-      </c>
-      <c r="G43" s="80" t="s">
+        <v>943</v>
+      </c>
+      <c r="G43" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="150">
       <c r="A44" s="14" t="s">
-        <v>1052</v>
+        <v>1077</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>920</v>
+        <v>944</v>
       </c>
       <c r="D44" s="43" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>921</v>
+        <v>945</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>922</v>
-      </c>
-      <c r="G44" s="80"/>
+        <v>946</v>
+      </c>
+      <c r="G44" s="82"/>
     </row>
     <row r="45" spans="1:7" ht="120">
       <c r="A45" s="14" t="s">
-        <v>1053</v>
+        <v>1078</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>923</v>
+        <v>947</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>926</v>
-      </c>
-      <c r="G45" s="80" t="s">
+        <v>950</v>
+      </c>
+      <c r="G45" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="135">
       <c r="A46" s="14" t="s">
-        <v>1054</v>
+        <v>1079</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>930</v>
-      </c>
-      <c r="G46" s="80" t="s">
+        <v>954</v>
+      </c>
+      <c r="G46" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="150">
       <c r="A47" s="14" t="s">
-        <v>1055</v>
+        <v>1080</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>915</v>
+        <v>939</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="D47" s="43" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>934</v>
-      </c>
-      <c r="G47" s="80" t="s">
+        <v>958</v>
+      </c>
+      <c r="G47" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="150">
       <c r="A48" s="14" t="s">
-        <v>1056</v>
+        <v>1081</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="D48" s="43" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>939</v>
-      </c>
-      <c r="G48" s="80" t="s">
+        <v>963</v>
+      </c>
+      <c r="G48" s="82" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="69">
       <c r="A49" s="14" t="s">
-        <v>1057</v>
+        <v>1082</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="G49" s="78" t="s">
+        <v>968</v>
+      </c>
+      <c r="G49" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="126">
       <c r="A50" s="14" t="s">
-        <v>1058</v>
+        <v>1083</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>947</v>
-      </c>
-      <c r="G50" s="78" t="s">
+        <v>971</v>
+      </c>
+      <c r="G50" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="126">
       <c r="A51" s="14" t="s">
-        <v>1059</v>
+        <v>1084</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>950</v>
-      </c>
-      <c r="G51" s="78" t="s">
+        <v>974</v>
+      </c>
+      <c r="G51" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="138">
       <c r="A52" s="14" t="s">
-        <v>1060</v>
+        <v>1085</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>954</v>
-      </c>
-      <c r="G52" s="78" t="s">
+        <v>978</v>
+      </c>
+      <c r="G52" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="111">
       <c r="A53" s="14" t="s">
-        <v>1061</v>
+        <v>1086</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>958</v>
-      </c>
-      <c r="G53" s="78" t="s">
+        <v>982</v>
+      </c>
+      <c r="G53" s="80" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="138">
       <c r="A54" s="14" t="s">
-        <v>1062</v>
+        <v>1087</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="G54" s="78" t="s">
+        <v>985</v>
+      </c>
+      <c r="G54" s="80" t="s">
         <v>18</v>
       </c>
     </row>
@@ -18727,17 +18872,17 @@
       <c r="C55" s="42"/>
       <c r="D55" s="45"/>
       <c r="E55" s="42"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="80"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="82"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="14"/>
-      <c r="B56" s="52"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="42"/>
       <c r="D56" s="45"/>
       <c r="E56" s="43"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="80"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
     <sheet name="Task Management" sheetId="2" r:id="rId2"/>
     <sheet name="User Management" sheetId="3" r:id="rId3"/>
     <sheet name="Project Management" sheetId="4" r:id="rId4"/>
-    <sheet name="Service for importing" sheetId="5" r:id="rId5"/>
+    <sheet name="Webservice" sheetId="5" r:id="rId5"/>
     <sheet name="Timesheet management" sheetId="6" r:id="rId6"/>
     <sheet name="Skill management" sheetId="7" r:id="rId7"/>
     <sheet name="IMSM" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -12379,8 +12379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -14348,7 +14348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" ht="90">
+    <row r="21" spans="1:8" ht="105">
       <c r="A21" s="14" t="s">
         <v>340</v>
       </c>
@@ -15260,10 +15260,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15300,7 +15300,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="31">
-        <f>COUNTIF(A12:A23,"W*")</f>
+        <f>COUNTIF(A12:A19,"W*")</f>
         <v>8</v>
       </c>
     </row>
@@ -15565,48 +15565,8 @@
       <c r="G19" s="47"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="16"/>
-    </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="D27" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -15848,7 +15808,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="270">
+    <row r="16" spans="1:8" ht="255">
       <c r="A16" s="16" t="s">
         <v>595</v>
       </c>
@@ -15872,7 +15832,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="270">
+    <row r="17" spans="1:8" ht="255">
       <c r="A17" s="16" t="s">
         <v>596</v>
       </c>
@@ -17971,7 +17931,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" ht="285">
+    <row r="16" spans="1:8" ht="300">
       <c r="A16" s="14" t="s">
         <v>1049</v>
       </c>

--- a/testcase/OpenERP_TCs for automation training course.xlsx
+++ b/testcase/OpenERP_TCs for automation training course.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="9" r:id="rId1"/>
     <sheet name="CreateTask_Member" sheetId="2" r:id="rId2"/>
     <sheet name="User Management" sheetId="3" r:id="rId3"/>
-    <sheet name="CreateNewProject" sheetId="4" r:id="rId4"/>
+    <sheet name="Project Management" sheetId="4" r:id="rId4"/>
     <sheet name="Timesheet management" sheetId="6" r:id="rId5"/>
     <sheet name="Skill management" sheetId="7" r:id="rId6"/>
     <sheet name="IMSM" sheetId="8" r:id="rId7"/>
     <sheet name="Webservice" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -11616,6 +11616,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11703,7 +11704,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12006,7 +12006,7 @@
   <dimension ref="A4:E21"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -12018,68 +12018,68 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:5">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>950</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
     </row>
     <row r="6" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>970</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
     </row>
     <row r="8" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
     </row>
     <row r="10" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
     </row>
     <row r="13" spans="1:5" ht="27.75" customHeight="1">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
     </row>
     <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="82" t="s">
@@ -12250,22 +12250,22 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="42" customHeight="1" thickBot="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="95"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="96"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -12279,10 +12279,10 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="97"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -12320,49 +12320,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="60" customHeight="1" outlineLevel="2">
@@ -13185,18 +13185,18 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -13210,8 +13210,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -13249,49 +13249,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="57" outlineLevel="2">
@@ -14200,8 +14200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -14218,18 +14218,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="97" t="s">
+      <c r="E2" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
       <c r="D3" s="5"/>
       <c r="E3" s="29" t="s">
         <v>1</v>
@@ -14243,8 +14243,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="96"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6" t="s">
         <v>3</v>
@@ -14282,49 +14282,49 @@
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="B9" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="102" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="100" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="26"/>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="26"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
       <c r="F10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="27" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="28"/>
-      <c r="G11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="13" customFormat="1" ht="114">
@@ -15132,18 +15132,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="D3" s="52"/>
       <c r="E3" s="55" t="s">
         <v>1</v>
@@ -15157,8 +15157,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
       <c r="D4" s="52"/>
       <c r="E4" s="58" t="s">
         <v>3</v>
@@ -15196,49 +15196,49 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="112" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="67"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="116" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" s="73" customFormat="1" ht="119.25">
@@ -16026,18 +16026,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="D3" s="52"/>
       <c r="E3" s="55" t="s">
         <v>1</v>
@@ -16051,8 +16051,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
       <c r="D4" s="52"/>
       <c r="E4" s="58" t="s">
         <v>3</v>
@@ -16090,49 +16090,49 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="112" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="68"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="116" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="70" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="72"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="72"/>
     </row>
     <row r="12" spans="1:8" s="73" customFormat="1" ht="57">
@@ -17251,18 +17251,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="D3" s="52"/>
       <c r="E3" s="55" t="s">
         <v>1</v>
@@ -17276,8 +17276,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
       <c r="D4" s="52"/>
       <c r="E4" s="58" t="s">
         <v>3</v>
@@ -17315,49 +17315,49 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="112" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="67"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="116" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="69" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="71"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="71"/>
     </row>
     <row r="12" spans="1:8" s="73" customFormat="1" ht="57">
@@ -18393,7 +18393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -18411,18 +18411,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
       <c r="D2" s="52"/>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
       <c r="D3" s="52"/>
       <c r="E3" s="55" t="s">
         <v>1</v>
@@ -18436,8 +18436,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="110"/>
-      <c r="B4" s="110"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
       <c r="D4" s="52"/>
       <c r="E4" s="58" t="s">
         <v>3</v>
@@ -18475,49 +18475,49 @@
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="111" t="s">
+      <c r="B9" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="112" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="86"/>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="116" t="s">
         <v>162</v>
       </c>
       <c r="H9" s="86"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="116"/>
+      <c r="G10" s="117"/>
       <c r="H10" s="87" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="88"/>
-      <c r="G11" s="117"/>
+      <c r="G11" s="118"/>
       <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:8" s="73" customFormat="1" ht="75">
@@ -18542,7 +18542,7 @@
       <c r="G12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="119"/>
+      <c r="H12" s="90"/>
     </row>
     <row r="13" spans="1:8" s="13" customFormat="1" ht="135">
       <c r="A13" s="14" t="s">
@@ -18564,7 +18564,7 @@
         <v>1082</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="119"/>
+      <c r="H13" s="90"/>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" ht="105">
       <c r="A14" s="14" t="s">
@@ -18586,7 +18586,7 @@
         <v>1059</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="119"/>
+      <c r="H14" s="90"/>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" ht="165">
       <c r="A15" s="14" t="s">
@@ -18608,7 +18608,7 @@
         <v>1063</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="119"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" ht="165">
       <c r="A16" s="14" t="s">
@@ -18630,7 +18630,7 @@
         <v>1067</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="119"/>
+      <c r="H16" s="90"/>
     </row>
     <row r="17" spans="1:8" s="3" customFormat="1" ht="165">
       <c r="A17" s="14" t="s">
@@ -18652,29 +18652,29 @@
         <v>1071</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="119"/>
+      <c r="H17" s="90"/>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1">
-      <c r="A18" s="118" t="s">
+      <c r="A18" s="119" t="s">
         <v>1072</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="119" t="s">
         <v>1073</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="119" t="s">
         <v>1084</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="119" t="s">
         <v>1074</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="119" t="s">
         <v>1075</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="119"/>
+      <c r="H18" s="90"/>
     </row>
     <row r="19" spans="1:8" s="3" customFormat="1" ht="191.25">
       <c r="A19" s="14" t="s">
@@ -19037,11 +19037,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A18"/>
-    <mergeCell ref="C18"/>
-    <mergeCell ref="D18"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="F18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="A3:B3"/>
@@ -19052,6 +19047,11 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="C18"/>
+    <mergeCell ref="D18"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="F18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G12:G54">
